--- a/00.data/Global_Policy_Uncertainty_Data.xlsx
+++ b/00.data/Global_Policy_Uncertainty_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kms12\Documents\R\EPU\Monthly Files\2025-07-08\Submission 2025-07-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kms12\Documents\R\EPU\Monthly Files\2025-08-10\Submission 2025-08-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1A964-81EC-4EC1-856B-888240C229C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB0165A-9A26-41A9-8456-33876AA7C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>75.75596023172416</v>
+        <v>75.736197869742142</v>
       </c>
       <c r="D2">
-        <v>78.995940442983553</v>
+        <v>78.946670070497362</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>76.122410197508628</v>
+        <v>76.122417062606729</v>
       </c>
       <c r="D3">
-        <v>75.710191495505214</v>
+        <v>75.710179646316931</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>66.773280078590858</v>
+        <v>66.763316942875733</v>
       </c>
       <c r="D4">
-        <v>64.71897872324098</v>
+        <v>64.694145734785778</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>71.728173813725874</v>
+        <v>71.719847331758515</v>
       </c>
       <c r="D5">
-        <v>71.797356528012983</v>
+        <v>71.776612385919648</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>75.383254957611527</v>
+        <v>75.42339607589021</v>
       </c>
       <c r="D6">
-        <v>82.356320165248263</v>
+        <v>82.456334510014159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>79.43566468263532</v>
+        <v>79.457762849758439</v>
       </c>
       <c r="D7">
-        <v>82.848503167326555</v>
+        <v>82.903484110440758</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>66.047560090089732</v>
+        <v>66.052306001584057</v>
       </c>
       <c r="D8">
-        <v>66.439702520484531</v>
+        <v>66.45157363383683</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>62.968521781951559</v>
+        <v>62.916343196162316</v>
       </c>
       <c r="D9">
-        <v>58.410164015335482</v>
+        <v>58.280237046906493</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>66.050497365065453</v>
+        <v>66.005032357638186</v>
       </c>
       <c r="D10">
-        <v>61.126353555975761</v>
+        <v>61.013158344596171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>81.772970560064095</v>
+        <v>81.720633297153313</v>
       </c>
       <c r="D11">
-        <v>76.230231920690429</v>
+        <v>76.099873343538334</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>93.60509924048155</v>
+        <v>93.470660255561185</v>
       </c>
       <c r="D12">
-        <v>84.954234509572174</v>
+        <v>84.619431195091153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -610,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>104.9479346070439</v>
+        <v>104.78434546143811</v>
       </c>
       <c r="D13">
-        <v>93.488635326665204</v>
+        <v>93.081238334210326</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>95.520625796411153</v>
+        <v>95.387683184405091</v>
       </c>
       <c r="D14">
-        <v>89.176885220862019</v>
+        <v>88.852612854385455</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -638,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>82.363415126078479</v>
+        <v>82.273298806253806</v>
       </c>
       <c r="D15">
-        <v>76.536670199343874</v>
+        <v>76.316879126599659</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>83.982205209623316</v>
+        <v>83.862483398024281</v>
       </c>
       <c r="D16">
-        <v>76.867800735712891</v>
+        <v>76.575783854339946</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>78.418423703323839</v>
+        <v>78.312500961170215</v>
       </c>
       <c r="D17">
-        <v>72.345705033465151</v>
+        <v>72.08736344916646</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>84.937286193169328</v>
+        <v>84.818910460301566</v>
       </c>
       <c r="D18">
-        <v>78.878049114517125</v>
+        <v>78.589315455332269</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>82.638509459311649</v>
+        <v>82.528642053232304</v>
       </c>
       <c r="D19">
-        <v>77.009893169370386</v>
+        <v>76.741941812330012</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -708,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>99.728944252780224</v>
+        <v>99.571377185210196</v>
       </c>
       <c r="D20">
-        <v>92.801579659259005</v>
+        <v>92.417278331690525</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,10 +722,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>112.98726033115733</v>
+        <v>112.82277528114055</v>
       </c>
       <c r="D21">
-        <v>104.27840197359373</v>
+        <v>103.87723786589095</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>143.50476709728628</v>
+        <v>143.41854883587706</v>
       </c>
       <c r="D22">
-        <v>142.63523592218792</v>
+        <v>142.42497170493402</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>117.37830850224189</v>
+        <v>117.24336452127854</v>
       </c>
       <c r="D23">
-        <v>109.10932161410085</v>
+        <v>108.78019361600198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,10 +764,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>97.036207820376376</v>
+        <v>96.96314516203644</v>
       </c>
       <c r="D24">
-        <v>90.608748391606483</v>
+        <v>90.430563033055932</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>91.575621998168231</v>
+        <v>91.518601024068246</v>
       </c>
       <c r="D25">
-        <v>89.336617900223217</v>
+        <v>89.197583241425164</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>94.715311457345464</v>
+        <v>94.681067832236167</v>
       </c>
       <c r="D26">
-        <v>91.54377357971326</v>
+        <v>91.459153665401459</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>78.469929572930951</v>
+        <v>78.425540976369334</v>
       </c>
       <c r="D27">
-        <v>74.815523878399929</v>
+        <v>74.705848891777023</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>61.929374074185262</v>
+        <v>61.899916563716701</v>
       </c>
       <c r="D28">
-        <v>56.637242806272731</v>
+        <v>56.564467528002083</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>65.108162033833779</v>
+        <v>65.087832754853153</v>
       </c>
       <c r="D29">
-        <v>63.364032397436731</v>
+        <v>63.313803053203152</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>68.5953735042864</v>
+        <v>68.548171007861583</v>
       </c>
       <c r="D30">
-        <v>67.479015416783284</v>
+        <v>67.362410792885925</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>69.829477641263452</v>
+        <v>69.789810740882928</v>
       </c>
       <c r="D31">
-        <v>67.072916349239534</v>
+        <v>66.974903193931738</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>71.845654756553301</v>
+        <v>71.820297539106406</v>
       </c>
       <c r="D32">
-        <v>70.126676148158495</v>
+        <v>70.064036374447312</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>64.865551995987516</v>
+        <v>64.854701048129172</v>
       </c>
       <c r="D33">
-        <v>67.647376244475652</v>
+        <v>67.620578388977719</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>65.761739861437093</v>
+        <v>65.728916195932669</v>
       </c>
       <c r="D34">
-        <v>61.675260778517057</v>
+        <v>61.594171261163801</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>65.364007430947595</v>
+        <v>65.348281250812263</v>
       </c>
       <c r="D35">
-        <v>66.047034804524415</v>
+        <v>66.008198159941387</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>68.075727585028204</v>
+        <v>68.053254234963788</v>
       </c>
       <c r="D36">
-        <v>65.094730041524315</v>
+        <v>65.039225771313994</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>60.818565812411862</v>
+        <v>60.81425120080371</v>
       </c>
       <c r="D37">
-        <v>57.919241919487213</v>
+        <v>57.908627524465487</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>65.256250365355839</v>
+        <v>65.265115983803213</v>
       </c>
       <c r="D38">
-        <v>66.342553403170072</v>
+        <v>66.363674728103433</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>59.30033593729155</v>
+        <v>59.302714596281639</v>
       </c>
       <c r="D39">
-        <v>55.559917908073963</v>
+        <v>55.565601799962785</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>61.94751067571152</v>
+        <v>61.954499270776623</v>
       </c>
       <c r="D40">
-        <v>60.509250658451165</v>
+        <v>60.525905245193009</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>64.576345789854486</v>
+        <v>64.58058581065329</v>
       </c>
       <c r="D41">
-        <v>61.600639917600404</v>
+        <v>61.610761263433062</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>85.824264134802149</v>
+        <v>85.828980475676303</v>
       </c>
       <c r="D42">
-        <v>81.402919278128977</v>
+        <v>81.414164111429713</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>89.188107267946265</v>
+        <v>89.194573698930967</v>
       </c>
       <c r="D43">
-        <v>85.172366205646227</v>
+        <v>85.187822049684684</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>67.328942270790421</v>
+        <v>67.33535073805119</v>
       </c>
       <c r="D44">
-        <v>63.39430126279175</v>
+        <v>63.409572776920143</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>54.460503000157345</v>
+        <v>54.464618764813331</v>
       </c>
       <c r="D45">
-        <v>52.780954541189679</v>
+        <v>52.790760461053885</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>60.723586963401907</v>
+        <v>60.728313495714566</v>
       </c>
       <c r="D46">
-        <v>61.65052923504593</v>
+        <v>61.661800183258151</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>68.812588637700884</v>
+        <v>68.818939932927947</v>
       </c>
       <c r="D47">
-        <v>67.701876111526502</v>
+        <v>67.71701300966528</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>104.55782222465447</v>
+        <v>104.55932953939809</v>
       </c>
       <c r="D48">
-        <v>93.830839728194675</v>
+        <v>93.834444356806515</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>100.79933298241023</v>
+        <v>100.80661562726876</v>
       </c>
       <c r="D49">
-        <v>94.63978634339017</v>
+        <v>94.657140331242857</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>99.208064860196174</v>
+        <v>99.21686592378488</v>
       </c>
       <c r="D50">
-        <v>93.330335383263446</v>
+        <v>93.350214544720345</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>99.946774054107834</v>
+        <v>99.95358191027259</v>
       </c>
       <c r="D51">
-        <v>93.57384076651293</v>
+        <v>93.589220366100207</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>112.1429324233743</v>
+        <v>112.15266325908604</v>
       </c>
       <c r="D52">
-        <v>104.06659350978217</v>
+        <v>104.08856839264948</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>107.01881085387846</v>
+        <v>107.02315368306567</v>
       </c>
       <c r="D53">
-        <v>95.950505784810289</v>
+        <v>95.960347539584276</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>82.946937613164934</v>
+        <v>82.951582483157381</v>
       </c>
       <c r="D54">
-        <v>76.217952310406929</v>
+        <v>76.228431352764503</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>74.078496505405241</v>
+        <v>74.08539023417282</v>
       </c>
       <c r="D55">
-        <v>70.368115468809194</v>
+        <v>70.383694196418944</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>97.381626710711686</v>
+        <v>97.386702723953562</v>
       </c>
       <c r="D56">
-        <v>89.305100506611055</v>
+        <v>89.316557039479065</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,10 +1226,10 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>82.588818330177773</v>
+        <v>82.595313420064983</v>
       </c>
       <c r="D57">
-        <v>78.612343520656822</v>
+        <v>78.626998335098278</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,10 +1240,10 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>174.97064336096469</v>
+        <v>174.97791667520971</v>
       </c>
       <c r="D58">
-        <v>157.8515048834208</v>
+        <v>157.86792929259073</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>163.67977191239103</v>
+        <v>163.6883198482565</v>
       </c>
       <c r="D59">
-        <v>149.63779346453464</v>
+        <v>149.65709339686285</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,10 +1268,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>123.74122639176358</v>
+        <v>123.75014800813906</v>
       </c>
       <c r="D60">
-        <v>116.16318275539614</v>
+        <v>116.18331551353971</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1282,10 +1282,10 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>106.24083793877389</v>
+        <v>106.25100937418865</v>
       </c>
       <c r="D61">
-        <v>100.55781215208965</v>
+        <v>100.58075544471164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>104.09904886302809</v>
+        <v>104.11008430266963</v>
       </c>
       <c r="D62">
-        <v>99.496952404526226</v>
+        <v>99.521982325115644</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>86.308166057809629</v>
+        <v>86.315390838717278</v>
       </c>
       <c r="D63">
-        <v>80.745408920785763</v>
+        <v>80.761807413088363</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1324,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>76.81498724411675</v>
+        <v>76.824559797560269</v>
       </c>
       <c r="D64">
-        <v>74.57136355763916</v>
+        <v>74.593082178291809</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>81.817953540024305</v>
+        <v>81.82606232268833</v>
       </c>
       <c r="D65">
-        <v>79.114442777966104</v>
+        <v>79.132845031619752</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>80.075632779955797</v>
+        <v>80.083932317947529</v>
       </c>
       <c r="D66">
-        <v>77.94938511277465</v>
+        <v>77.968228302438789</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>91.952231653734515</v>
+        <v>91.957582497253853</v>
       </c>
       <c r="D67">
-        <v>88.829115327804629</v>
+        <v>88.841281637238126</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1380,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>99.842933537226543</v>
+        <v>99.852541247679582</v>
       </c>
       <c r="D68">
-        <v>94.035901205397892</v>
+        <v>94.057702241429709</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>104.35674660812339</v>
+        <v>104.36453902265194</v>
       </c>
       <c r="D69">
-        <v>98.6422507520697</v>
+        <v>98.659947462549923</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>119.29333425284423</v>
+        <v>119.30314179024775</v>
       </c>
       <c r="D70">
-        <v>113.81006556837225</v>
+        <v>113.83231916969001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>115.08715534204332</v>
+        <v>115.09716195186188</v>
       </c>
       <c r="D71">
-        <v>113.12041255943058</v>
+        <v>113.1431319935155</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>121.27086725905149</v>
+        <v>121.28145308736593</v>
       </c>
       <c r="D72">
-        <v>114.36303536665844</v>
+        <v>114.38705377384969</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>119.60306255899961</v>
+        <v>119.61916083238449</v>
       </c>
       <c r="D73">
-        <v>115.88129937706915</v>
+        <v>115.91781868218156</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>125.72059672326924</v>
+        <v>125.72883684759786</v>
       </c>
       <c r="D74">
-        <v>113.2196006108548</v>
+        <v>113.2392624046818</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>134.77711622042716</v>
+        <v>134.78209894509425</v>
       </c>
       <c r="D75">
-        <v>122.66082444503708</v>
+        <v>122.67273024389455</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,10 +1492,10 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>167.62995357983368</v>
+        <v>167.64266798803035</v>
       </c>
       <c r="D76">
-        <v>154.92103735927864</v>
+        <v>154.95135581883815</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>136.15726208287717</v>
+        <v>136.17541942628787</v>
       </c>
       <c r="D77">
-        <v>130.37020349132436</v>
+        <v>130.41348083723639</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>106.341501974775</v>
+        <v>106.35379218037126</v>
       </c>
       <c r="D78">
-        <v>101.64828650246987</v>
+        <v>101.67760275095178</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>88.865505181363204</v>
+        <v>88.875327016602256</v>
       </c>
       <c r="D79">
-        <v>82.490983285720716</v>
+        <v>82.514402763759364</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>80.589740531950369</v>
+        <v>80.604984524108502</v>
       </c>
       <c r="D80">
-        <v>82.529161817149372</v>
+        <v>82.565514845878425</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>69.254874621334068</v>
+        <v>69.265795401669749</v>
       </c>
       <c r="D81">
-        <v>71.200855987315066</v>
+        <v>71.226887331578865</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,10 +1576,10 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80.171972517397919</v>
+        <v>80.180838620280895</v>
       </c>
       <c r="D82">
-        <v>76.184444395842107</v>
+        <v>76.205613011610311</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1590,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>76.33183822236515</v>
+        <v>76.343059641259813</v>
       </c>
       <c r="D83">
-        <v>78.307242776563413</v>
+        <v>78.334016917601659</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,10 +1604,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>73.749480993978025</v>
+        <v>73.75640562614231</v>
       </c>
       <c r="D84">
-        <v>75.192088365644949</v>
+        <v>75.208626388517573</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,10 +1618,10 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>70.238015992646041</v>
+        <v>70.247504534056574</v>
       </c>
       <c r="D85">
-        <v>69.879918826134613</v>
+        <v>69.902549312621787</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>72.296386777301606</v>
+        <v>72.306901690996725</v>
       </c>
       <c r="D86">
-        <v>76.70676175887364</v>
+        <v>76.731803039591085</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>72.511368515055068</v>
+        <v>72.522194088564248</v>
       </c>
       <c r="D87">
-        <v>79.550947742851548</v>
+        <v>79.576740534645722</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>77.915164287563755</v>
+        <v>77.924179149890776</v>
       </c>
       <c r="D88">
-        <v>74.97221844690867</v>
+        <v>74.993687561237536</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,10 +1674,10 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>77.684278937369825</v>
+        <v>77.695368807285945</v>
       </c>
       <c r="D89">
-        <v>79.690438104414866</v>
+        <v>79.716848214018256</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="C90">
-        <v>89.306225859917205</v>
+        <v>89.313201247065081</v>
       </c>
       <c r="D90">
-        <v>94.388830470809054</v>
+        <v>94.40545962925853</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,10 +1702,10 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>77.390825644253482</v>
+        <v>77.400420609006602</v>
       </c>
       <c r="D91">
-        <v>77.928032661126451</v>
+        <v>77.950912423002137</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>74.662231509759721</v>
+        <v>74.671139056211516</v>
       </c>
       <c r="D92">
-        <v>71.876544820488377</v>
+        <v>71.897770703460651</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>68.727537595618145</v>
+        <v>68.735879618769999</v>
       </c>
       <c r="D93">
-        <v>67.750983411493991</v>
+        <v>67.770851536124667</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>78.010509149186063</v>
+        <v>78.017008088519262</v>
       </c>
       <c r="D94">
-        <v>73.976777864545738</v>
+        <v>73.992276688336602</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>89.004625675809791</v>
+        <v>89.016280438750314</v>
       </c>
       <c r="D95">
-        <v>88.889669980749503</v>
+        <v>88.917418128102213</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>84.076495469163333</v>
+        <v>84.085648414702263</v>
       </c>
       <c r="D96">
-        <v>80.390652383528902</v>
+        <v>80.412456053927485</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>65.517168726920687</v>
+        <v>65.530958286861718</v>
       </c>
       <c r="D97">
-        <v>67.788338735166306</v>
+        <v>67.821169744569843</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>57.919322886877247</v>
+        <v>57.929408828215209</v>
       </c>
       <c r="D98">
-        <v>64.137080721436831</v>
+        <v>64.160387677139283</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>55.180105822166574</v>
+        <v>55.188291240690624</v>
       </c>
       <c r="D99">
-        <v>58.032450391509229</v>
+        <v>58.051379323523093</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1828,10 +1828,10 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>53.219365364240296</v>
+        <v>53.227869973703719</v>
       </c>
       <c r="D100">
-        <v>56.245108061652168</v>
+        <v>56.264763499120484</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,10 +1842,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>70.827315039278858</v>
+        <v>70.843738949656441</v>
       </c>
       <c r="D101">
-        <v>76.192272288487004</v>
+        <v>76.230226259734053</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,10 +1856,10 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>67.555525793068398</v>
+        <v>67.560411061298993</v>
       </c>
       <c r="D102">
-        <v>63.958087345353761</v>
+        <v>63.969399708166037</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -1870,10 +1870,10 @@
         <v>6</v>
       </c>
       <c r="C103">
-        <v>70.876095429694033</v>
+        <v>70.885759898319847</v>
       </c>
       <c r="D103">
-        <v>71.519879173507519</v>
+        <v>71.542219716094507</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -1884,10 +1884,10 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>63.144554547244972</v>
+        <v>63.157284059082073</v>
       </c>
       <c r="D104">
-        <v>64.801529008773471</v>
+        <v>64.830939290062886</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1898,10 +1898,10 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>61.591338542618317</v>
+        <v>61.603622029337743</v>
       </c>
       <c r="D105">
-        <v>63.011933202043672</v>
+        <v>63.04031579608624</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1912,10 +1912,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>94.106081951661309</v>
+        <v>94.120545124631207</v>
       </c>
       <c r="D106">
-        <v>92.125624944683835</v>
+        <v>92.159041693061539</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1926,10 +1926,10 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>66.087666462784227</v>
+        <v>66.098502730310102</v>
       </c>
       <c r="D107">
-        <v>68.529521799646233</v>
+        <v>68.554581128479583</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -1940,10 +1940,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>66.606062480051818</v>
+        <v>66.613376403872522</v>
       </c>
       <c r="D108">
-        <v>64.403459153204793</v>
+        <v>64.420398986028061</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>61.903121086169911</v>
+        <v>61.916372934903166</v>
       </c>
       <c r="D109">
-        <v>66.665082240532428</v>
+        <v>66.695712958539517</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>71.013731928145035</v>
+        <v>71.036429485086643</v>
       </c>
       <c r="D110">
-        <v>78.147813320598729</v>
+        <v>78.197939093957288</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>59.385924899123182</v>
+        <v>59.400661185419224</v>
       </c>
       <c r="D111">
-        <v>61.146085772323154</v>
+        <v>61.178630734675878</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,10 +1996,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>58.533924266513985</v>
+        <v>58.546720154405619</v>
       </c>
       <c r="D112">
-        <v>61.361699586186973</v>
+        <v>61.389964998511203</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2010,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>71.820368305716642</v>
+        <v>71.834140755676302</v>
       </c>
       <c r="D113">
-        <v>73.945280971452675</v>
+        <v>73.975701700676737</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>63.001060564163069</v>
+        <v>63.009839830057885</v>
       </c>
       <c r="D114">
-        <v>62.912040350438495</v>
+        <v>62.931445106849132</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <v>72.459132061041416</v>
+        <v>72.470027531932061</v>
       </c>
       <c r="D115">
-        <v>72.583504210769576</v>
+        <v>72.607574349311477</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2052,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="C116">
-        <v>69.490201684945546</v>
+        <v>69.503165512602209</v>
       </c>
       <c r="D116">
-        <v>71.081782977620406</v>
+        <v>71.110414388344182</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2066,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>60.547397486407057</v>
+        <v>60.567377366157586</v>
       </c>
       <c r="D117">
-        <v>64.475726600858067</v>
+        <v>64.511527733792377</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,10 +2080,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>58.338338315996843</v>
+        <v>58.344093140269017</v>
       </c>
       <c r="D118">
-        <v>57.056893499377395</v>
+        <v>57.069629211366284</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>61.296013972007046</v>
+        <v>61.312442859077827</v>
       </c>
       <c r="D119">
-        <v>66.780266799014669</v>
+        <v>66.816543135261469</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2108,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>58.787852443777631</v>
+        <v>58.801554119390893</v>
       </c>
       <c r="D120">
-        <v>64.170159487705988</v>
+        <v>64.200423997191564</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2122,10 +2122,10 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>57.990707750514829</v>
+        <v>58.005594434396968</v>
       </c>
       <c r="D121">
-        <v>61.80397377418025</v>
+        <v>61.836854444548315</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2136,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>64.404698947492236</v>
+        <v>64.412484683058409</v>
       </c>
       <c r="D122">
-        <v>65.088099220997492</v>
+        <v>65.104225189913691</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>54.660571008211605</v>
+        <v>54.671245662605678</v>
       </c>
       <c r="D123">
-        <v>57.7955334494117</v>
+        <v>57.817642584964027</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2164,10 +2164,10 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>64.99553378961555</v>
+        <v>65.011730710522187</v>
       </c>
       <c r="D124">
-        <v>67.431621775355808</v>
+        <v>67.465142847843182</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,10 +2178,10 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>60.487789275727451</v>
+        <v>60.498819338801219</v>
       </c>
       <c r="D125">
-        <v>64.454330593332955</v>
+        <v>64.477169933021102</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>57.158522214809494</v>
+        <v>57.168461486072481</v>
       </c>
       <c r="D126">
-        <v>57.148983012544868</v>
+        <v>57.16956791749152</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>56.780886532964473</v>
+        <v>56.792829284888029</v>
       </c>
       <c r="D127">
-        <v>57.399825043708326</v>
+        <v>57.424546526627871</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2220,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>47.842173376386988</v>
+        <v>47.857994934533487</v>
       </c>
       <c r="D128">
-        <v>52.278091174820489</v>
+        <v>52.310830446380621</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2234,10 +2234,10 @@
         <v>8</v>
       </c>
       <c r="C129">
-        <v>78.423169537100947</v>
+        <v>78.436642357775042</v>
       </c>
       <c r="D129">
-        <v>76.505297251708328</v>
+        <v>76.533188859306691</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,10 +2248,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>100.0886897122472</v>
+        <v>100.10454555908913</v>
       </c>
       <c r="D130">
-        <v>94.246783941180269</v>
+        <v>94.279617996815972</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>79.806145779855768</v>
+        <v>79.820946973639636</v>
       </c>
       <c r="D131">
-        <v>79.026758797416136</v>
+        <v>79.057400840112109</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2276,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>83.500933641074283</v>
+        <v>83.513473552822617</v>
       </c>
       <c r="D132">
-        <v>79.217099479777517</v>
+        <v>79.243061368564256</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2290,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>97.049715928332446</v>
+        <v>97.072315794202993</v>
       </c>
       <c r="D133">
-        <v>99.455140297899078</v>
+        <v>99.501908936764252</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>134.75141510448546</v>
+        <v>134.77774736453156</v>
       </c>
       <c r="D134">
-        <v>132.62471055862545</v>
+        <v>132.67348467378412</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>99.323174849059313</v>
+        <v>99.340627805732268</v>
       </c>
       <c r="D135">
-        <v>97.662287664724417</v>
+        <v>97.694617512139587</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2332,10 +2332,10 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>120.23814648656951</v>
+        <v>120.28179516891768</v>
       </c>
       <c r="D136">
-        <v>129.41104189333885</v>
+        <v>129.49187394121256</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>92.22416336870586</v>
+        <v>92.25356912108812</v>
       </c>
       <c r="D137">
-        <v>98.791564210250826</v>
+        <v>98.846025653808084</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,10 +2360,10 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>78.557541903810474</v>
+        <v>78.579238906037816</v>
       </c>
       <c r="D138">
-        <v>81.611469200033241</v>
+        <v>81.651657190963519</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2374,10 +2374,10 @@
         <v>6</v>
       </c>
       <c r="C139">
-        <v>86.371592061434839</v>
+        <v>86.391790977113885</v>
       </c>
       <c r="D139">
-        <v>90.848365317890995</v>
+        <v>90.885782710300987</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,10 +2388,10 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <v>96.811994763629201</v>
+        <v>96.852459504164926</v>
       </c>
       <c r="D140">
-        <v>107.96931270532335</v>
+        <v>108.04425347949085</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2402,10 +2402,10 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>90.464455898050645</v>
+        <v>90.505681591409626</v>
       </c>
       <c r="D141">
-        <v>98.88047081984206</v>
+        <v>98.956821652840688</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,10 +2416,10 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>162.45096980855735</v>
+        <v>162.48432902029819</v>
       </c>
       <c r="D142">
-        <v>159.32148170048441</v>
+        <v>159.38327046040624</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>208.3663600393044</v>
+        <v>208.41467275693466</v>
       </c>
       <c r="D143">
-        <v>209.02021591943497</v>
+        <v>209.10970485869257</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>143.92509337093995</v>
+        <v>143.96556463150782</v>
       </c>
       <c r="D144">
-        <v>146.27966453154022</v>
+        <v>146.35462196084896</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2458,10 +2458,10 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>144.6918961836615</v>
+        <v>144.73206528961904</v>
       </c>
       <c r="D145">
-        <v>148.50283924293572</v>
+        <v>148.57723869844747</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>146.06593927103469</v>
+        <v>146.11568179417037</v>
       </c>
       <c r="D146">
-        <v>146.35955876116984</v>
+        <v>146.44695124008049</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,10 +2486,10 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>147.66784800533486</v>
+        <v>147.70603588022891</v>
       </c>
       <c r="D147">
-        <v>144.25318404104658</v>
+        <v>144.32029145676623</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2500,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>132.54194369950747</v>
+        <v>132.58502869298033</v>
       </c>
       <c r="D148">
-        <v>136.30861518255355</v>
+        <v>136.38432253123048</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2514,10 +2514,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>102.59576696831367</v>
+        <v>102.62587529940386</v>
       </c>
       <c r="D149">
-        <v>104.69756056680184</v>
+        <v>104.75046734861701</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2528,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="C150">
-        <v>103.71418888559586</v>
+        <v>103.735432265318</v>
       </c>
       <c r="D150">
-        <v>100.48789108160993</v>
+        <v>100.52523281529986</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>117.65658130525513</v>
+        <v>117.72335597369904</v>
       </c>
       <c r="D151">
-        <v>130.47317323918384</v>
+        <v>130.59050403144496</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2556,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>106.84992525008808</v>
+        <v>106.89996760423239</v>
       </c>
       <c r="D152">
-        <v>117.71890328426208</v>
+        <v>117.80683498626973</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2570,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="C153">
-        <v>103.42164910328464</v>
+        <v>103.46691002266964</v>
       </c>
       <c r="D153">
-        <v>109.2029876333181</v>
+        <v>109.28252944510646</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2584,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>106.66611877819069</v>
+        <v>106.73679504744652</v>
       </c>
       <c r="D154">
-        <v>119.46523832821788</v>
+        <v>119.58940973155848</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2598,10 +2598,10 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>92.237555943345342</v>
+        <v>92.282579008646863</v>
       </c>
       <c r="D155">
-        <v>97.980743021899926</v>
+        <v>98.059849670983084</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2612,10 +2612,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>105.80446751109359</v>
+        <v>105.85017013603496</v>
       </c>
       <c r="D156">
-        <v>109.27283292961258</v>
+        <v>109.35312401950161</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2626,10 +2626,10 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>102.95280379399198</v>
+        <v>102.99127542268823</v>
       </c>
       <c r="D157">
-        <v>105.62089052845158</v>
+        <v>105.68847381234093</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2640,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>118.26511994618554</v>
+        <v>118.31357269187197</v>
       </c>
       <c r="D158">
-        <v>120.57953881848864</v>
+        <v>120.66120212450915</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -2654,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>115.0176646229111</v>
+        <v>115.06078635770265</v>
       </c>
       <c r="D159">
-        <v>120.40785204420423</v>
+        <v>120.48052765307132</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2668,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>115.20161843398907</v>
+        <v>115.26016624275752</v>
       </c>
       <c r="D160">
-        <v>121.35896498211409</v>
+        <v>121.45761639790736</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -2682,10 +2682,10 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>109.51328275436228</v>
+        <v>109.55193380848362</v>
       </c>
       <c r="D161">
-        <v>109.23054728651489</v>
+        <v>109.29568415514177</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -2696,10 +2696,10 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>147.80166678296132</v>
+        <v>147.84513653111205</v>
       </c>
       <c r="D162">
-        <v>143.18264173792403</v>
+        <v>143.25591160114956</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -2710,10 +2710,10 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>138.88690486381006</v>
+        <v>138.94322019029741</v>
       </c>
       <c r="D163">
-        <v>141.96096950645085</v>
+        <v>142.0558803941887</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -2724,10 +2724,10 @@
         <v>7</v>
       </c>
       <c r="C164">
-        <v>149.16809374793939</v>
+        <v>149.21989505160192</v>
       </c>
       <c r="D164">
-        <v>146.80998335082913</v>
+        <v>146.89733481260117</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -2738,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="C165">
-        <v>123.79233551392568</v>
+        <v>123.83099554537326</v>
       </c>
       <c r="D165">
-        <v>121.83144962132448</v>
+        <v>121.89664199711945</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -2752,10 +2752,10 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>133.2843466458481</v>
+        <v>133.31773058534802</v>
       </c>
       <c r="D166">
-        <v>127.3456994195171</v>
+        <v>127.40196896704506</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,10 +2766,10 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>127.32147624120861</v>
+        <v>127.36127865943796</v>
       </c>
       <c r="D167">
-        <v>123.32594072465552</v>
+        <v>123.39302881476027</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -2780,10 +2780,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>131.18741479401743</v>
+        <v>131.2253649686723</v>
       </c>
       <c r="D168">
-        <v>127.62938224529803</v>
+        <v>127.69332258674095</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -2794,10 +2794,10 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>135.37306188793488</v>
+        <v>135.42420496249994</v>
       </c>
       <c r="D169">
-        <v>139.77561398383969</v>
+        <v>139.86180526571923</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -2808,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>115.31562376414651</v>
+        <v>115.38677068114905</v>
       </c>
       <c r="D170">
-        <v>124.3198623374423</v>
+        <v>124.43192451899085</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -2822,10 +2822,10 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>96.884356336891912</v>
+        <v>96.911415113042665</v>
       </c>
       <c r="D171">
-        <v>97.554916634975243</v>
+        <v>97.597549412424968</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -2836,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>131.19014490909174</v>
+        <v>131.2455776208017</v>
       </c>
       <c r="D172">
-        <v>131.96336063342486</v>
+        <v>132.05065688775642</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -2850,10 +2850,10 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>119.93792107613693</v>
+        <v>119.99994779007388</v>
       </c>
       <c r="D173">
-        <v>124.19941450780978</v>
+        <v>124.29711127395474</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -2864,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>94.722746428480207</v>
+        <v>94.756741022700865</v>
       </c>
       <c r="D174">
-        <v>94.660792332098822</v>
+        <v>94.714351306839347</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -2878,10 +2878,10 @@
         <v>6</v>
       </c>
       <c r="C175">
-        <v>124.97309334511515</v>
+        <v>125.02016769444162</v>
       </c>
       <c r="D175">
-        <v>124.24217812385562</v>
+        <v>124.31635040736167</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -2892,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>154.10088460980165</v>
+        <v>154.14652204143133</v>
       </c>
       <c r="D176">
-        <v>151.17951086338456</v>
+        <v>151.25155591947828</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2906,10 +2906,10 @@
         <v>8</v>
       </c>
       <c r="C177">
-        <v>217.49462480868615</v>
+        <v>217.55876639201804</v>
       </c>
       <c r="D177">
-        <v>215.56213188689881</v>
+        <v>215.66336585025871</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -2920,10 +2920,10 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>194.89941731590147</v>
+        <v>194.96477453580428</v>
       </c>
       <c r="D178">
-        <v>194.5651234328667</v>
+        <v>194.66810214159435</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>167.46856392683324</v>
+        <v>167.54091534504636</v>
       </c>
       <c r="D179">
-        <v>173.21994750131944</v>
+        <v>173.33392842740901</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -2948,10 +2948,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>192.18278277776182</v>
+        <v>192.25710579811181</v>
       </c>
       <c r="D180">
-        <v>195.212822254483</v>
+        <v>195.32983438286911</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -2962,10 +2962,10 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>178.91137823425325</v>
+        <v>178.98465009531603</v>
       </c>
       <c r="D181">
-        <v>186.26112410192016</v>
+        <v>186.37650647425153</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -2976,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>155.17259750106749</v>
+        <v>155.23440027429947</v>
       </c>
       <c r="D182">
-        <v>158.39998675640865</v>
+        <v>158.49112750288364</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,10 +2990,10 @@
         <v>2</v>
       </c>
       <c r="C183">
-        <v>141.99200954336044</v>
+        <v>142.06338553015854</v>
       </c>
       <c r="D183">
-        <v>148.24042072228394</v>
+        <v>148.34570069780995</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3004,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>133.36319117908167</v>
+        <v>133.43334609064127</v>
       </c>
       <c r="D184">
-        <v>146.77200048861104</v>
+        <v>146.87548195593851</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3018,10 +3018,10 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>130.8266324017859</v>
+        <v>130.89137613343928</v>
       </c>
       <c r="D185">
-        <v>136.41585766574784</v>
+        <v>136.51139063887845</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3032,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>160.41328770698959</v>
+        <v>160.48145544034318</v>
       </c>
       <c r="D186">
-        <v>165.4809734660771</v>
+        <v>165.58162411048323</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3046,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>183.93768167535978</v>
+        <v>184.00880908826997</v>
       </c>
       <c r="D187">
-        <v>188.21488380602506</v>
+        <v>188.31995060302788</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3060,10 +3060,10 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>153.25129081840657</v>
+        <v>153.31282000577821</v>
       </c>
       <c r="D188">
-        <v>152.90990885624154</v>
+        <v>153.00085042595572</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3074,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>117.32755958368681</v>
+        <v>117.36777696273168</v>
       </c>
       <c r="D189">
-        <v>118.58004476707426</v>
+        <v>118.63951527924253</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3088,10 +3088,10 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>154.3608059706624</v>
+        <v>154.42247636611347</v>
       </c>
       <c r="D190">
-        <v>156.02184493725892</v>
+        <v>156.11290863870306</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3102,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>151.84748041528283</v>
+        <v>151.90543365863465</v>
       </c>
       <c r="D191">
-        <v>151.57862712593078</v>
+        <v>151.66415761284387</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3116,10 +3116,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>166.67482263659173</v>
+        <v>166.73759645174556</v>
       </c>
       <c r="D192">
-        <v>160.95274470316059</v>
+        <v>161.04530807528823</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3130,10 +3130,10 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>171.10248981881901</v>
+        <v>171.17538260806236</v>
       </c>
       <c r="D193">
-        <v>169.9466168676405</v>
+        <v>170.05411988120704</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3144,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>168.19733637913706</v>
+        <v>168.2708474728303</v>
       </c>
       <c r="D194">
-        <v>165.86840357667469</v>
+        <v>165.9691697799868</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3158,10 +3158,10 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>123.72806996626522</v>
+        <v>123.77572524907497</v>
       </c>
       <c r="D195">
-        <v>123.35704078497923</v>
+        <v>123.42232849776214</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3172,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>146.17933710310578</v>
+        <v>146.23052484778731</v>
       </c>
       <c r="D196">
-        <v>145.20190429631575</v>
+        <v>145.27203005270229</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3186,10 +3186,10 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>137.03667911906621</v>
+        <v>137.10427235574687</v>
       </c>
       <c r="D197">
-        <v>139.72780420342485</v>
+        <v>139.82045514808891</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3200,10 +3200,10 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>108.70241790691392</v>
+        <v>108.74281875504188</v>
       </c>
       <c r="D198">
-        <v>108.40451795929357</v>
+        <v>108.45989263074809</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3214,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="C199">
-        <v>128.66589053972368</v>
+        <v>128.72295924542163</v>
       </c>
       <c r="D199">
-        <v>130.26258659929869</v>
+        <v>130.34136936616821</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3228,10 +3228,10 @@
         <v>7</v>
       </c>
       <c r="C200">
-        <v>108.96953591506936</v>
+        <v>109.01252570551617</v>
       </c>
       <c r="D200">
-        <v>108.55805992272977</v>
+        <v>108.61702839051557</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3242,10 +3242,10 @@
         <v>8</v>
       </c>
       <c r="C201">
-        <v>120.33248268775404</v>
+        <v>120.38912548922053</v>
       </c>
       <c r="D201">
-        <v>127.43262669344604</v>
+        <v>127.51047641480099</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3256,10 +3256,10 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>139.57743870060656</v>
+        <v>139.63438022821489</v>
       </c>
       <c r="D202">
-        <v>141.40402956613778</v>
+        <v>141.4821197742111</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -3270,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>169.84046512943982</v>
+        <v>169.92689799560102</v>
       </c>
       <c r="D203">
-        <v>167.3071800471879</v>
+        <v>167.42568943692825</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3284,10 +3284,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>104.83516456052952</v>
+        <v>104.90325792481688</v>
       </c>
       <c r="D204">
-        <v>108.03335185452093</v>
+        <v>108.1266979750649</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -3298,10 +3298,10 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>124.12662457240904</v>
+        <v>124.19672485155503</v>
       </c>
       <c r="D205">
-        <v>128.18843278620395</v>
+        <v>128.28453589585868</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -3312,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>116.10693266074557</v>
+        <v>116.16901046351613</v>
       </c>
       <c r="D206">
-        <v>119.65008212210033</v>
+        <v>119.73175613137757</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,10 +3326,10 @@
         <v>2</v>
       </c>
       <c r="C207">
-        <v>101.97165852336603</v>
+        <v>102.01402860347778</v>
       </c>
       <c r="D207">
-        <v>100.87483503109516</v>
+        <v>100.93055162712093</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3340,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>115.7800935898925</v>
+        <v>115.84008577606666</v>
       </c>
       <c r="D208">
-        <v>114.55041125676058</v>
+        <v>114.62931361273507</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -3354,10 +3354,10 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <v>111.57838819623936</v>
+        <v>111.65603745085373</v>
       </c>
       <c r="D209">
-        <v>118.39218635446187</v>
+        <v>118.49435508905484</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3368,10 +3368,10 @@
         <v>5</v>
       </c>
       <c r="C210">
-        <v>107.68332428502477</v>
+        <v>107.72973778708166</v>
       </c>
       <c r="D210">
-        <v>110.98741074979779</v>
+        <v>111.04847877848123</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3382,10 +3382,10 @@
         <v>6</v>
       </c>
       <c r="C211">
-        <v>92.111718257660087</v>
+        <v>92.174225951817562</v>
       </c>
       <c r="D211">
-        <v>96.412138859300796</v>
+        <v>96.494828705585022</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3396,10 +3396,10 @@
         <v>7</v>
       </c>
       <c r="C212">
-        <v>95.261821026889137</v>
+        <v>95.318525908946455</v>
       </c>
       <c r="D212">
-        <v>99.851749031850005</v>
+        <v>99.926358293132637</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -3410,10 +3410,10 @@
         <v>8</v>
       </c>
       <c r="C213">
-        <v>97.702844126391341</v>
+        <v>97.748830435412174</v>
       </c>
       <c r="D213">
-        <v>105.06586068894343</v>
+        <v>105.12662407963082</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -3424,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="C214">
-        <v>122.81362817430501</v>
+        <v>122.87826440732336</v>
       </c>
       <c r="D214">
-        <v>128.54198331316212</v>
+        <v>128.62705127380812</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -3438,10 +3438,10 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>113.30289822371802</v>
+        <v>113.36269953139369</v>
       </c>
       <c r="D215">
-        <v>114.64575912771679</v>
+        <v>114.72445601526448</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3452,10 +3452,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>120.50506865634806</v>
+        <v>120.57709251462592</v>
       </c>
       <c r="D216">
-        <v>128.48772891369657</v>
+        <v>128.5824873826561</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -3466,10 +3466,10 @@
         <v>12</v>
       </c>
       <c r="C217">
-        <v>111.65857297881223</v>
+        <v>111.69389977894828</v>
       </c>
       <c r="D217">
-        <v>113.87845760404844</v>
+        <v>113.92492663832272</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3480,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>130.05610200599531</v>
+        <v>130.12097242183586</v>
       </c>
       <c r="D218">
-        <v>135.07791460881265</v>
+        <v>135.1560574639586</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -3494,10 +3494,10 @@
         <v>2</v>
       </c>
       <c r="C219">
-        <v>116.26505340487215</v>
+        <v>116.32804383435584</v>
       </c>
       <c r="D219">
-        <v>122.64149543912546</v>
+        <v>122.71735670724914</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -3508,10 +3508,10 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>113.18283143700531</v>
+        <v>113.25988308729184</v>
       </c>
       <c r="D220">
-        <v>117.79969295682307</v>
+        <v>117.89247208301398</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -3522,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>102.05687233228089</v>
+        <v>102.0992633899735</v>
       </c>
       <c r="D221">
-        <v>100.7784963060721</v>
+        <v>100.82953298087961</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,10 +3536,10 @@
         <v>5</v>
       </c>
       <c r="C222">
-        <v>105.01260382346898</v>
+        <v>105.05797686723915</v>
       </c>
       <c r="D222">
-        <v>101.44997390468659</v>
+        <v>101.50456055504459</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -3550,10 +3550,10 @@
         <v>6</v>
       </c>
       <c r="C223">
-        <v>120.12306613437524</v>
+        <v>120.18499334256467</v>
       </c>
       <c r="D223">
-        <v>118.6574639354384</v>
+        <v>118.73248537996221</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3564,10 +3564,10 @@
         <v>7</v>
       </c>
       <c r="C224">
-        <v>124.27833893607767</v>
+        <v>124.36674892746221</v>
       </c>
       <c r="D224">
-        <v>122.85105349196512</v>
+        <v>122.95756139829523</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -3578,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="C225">
-        <v>120.38930585049297</v>
+        <v>120.42839818362701</v>
       </c>
       <c r="D225">
-        <v>117.1469201226508</v>
+        <v>117.19425525550959</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -3592,10 +3592,10 @@
         <v>9</v>
       </c>
       <c r="C226">
-        <v>154.30594027339706</v>
+        <v>154.36977544321783</v>
       </c>
       <c r="D226">
-        <v>153.76992570285097</v>
+        <v>153.84681297527246</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -3606,10 +3606,10 @@
         <v>10</v>
       </c>
       <c r="C227">
-        <v>116.51966039118588</v>
+        <v>116.5775875327946</v>
       </c>
       <c r="D227">
-        <v>115.33524527565493</v>
+        <v>115.4049805479583</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -3620,10 +3620,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>106.32397849008326</v>
+        <v>106.38786210174375</v>
       </c>
       <c r="D228">
-        <v>105.990289105381</v>
+        <v>106.06714279637769</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -3634,10 +3634,10 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>113.31659957464404</v>
+        <v>113.37899156437919</v>
       </c>
       <c r="D229">
-        <v>116.85524534088775</v>
+        <v>116.93045680201118</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -3648,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>145.13227826994014</v>
+        <v>145.21551633658217</v>
       </c>
       <c r="D230">
-        <v>140.88696572067221</v>
+        <v>140.98922239439594</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -3662,10 +3662,10 @@
         <v>2</v>
       </c>
       <c r="C231">
-        <v>148.10194029018143</v>
+        <v>148.17283975931531</v>
       </c>
       <c r="D231">
-        <v>145.697382780395</v>
+        <v>145.78432102584179</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -3676,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="C232">
-        <v>160.47921833762894</v>
+        <v>160.58102131480459</v>
       </c>
       <c r="D232">
-        <v>162.23215449038807</v>
+        <v>162.35701347188672</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>143.37171698304178</v>
+        <v>143.47992744368744</v>
       </c>
       <c r="D233">
-        <v>146.27801425922797</v>
+        <v>146.41080573275579</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -3704,10 +3704,10 @@
         <v>5</v>
       </c>
       <c r="C234">
-        <v>127.12103506696499</v>
+        <v>127.19835591448036</v>
       </c>
       <c r="D234">
-        <v>123.68837697364168</v>
+        <v>123.78310072422683</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -3718,10 +3718,10 @@
         <v>6</v>
       </c>
       <c r="C235">
-        <v>231.32783453853722</v>
+        <v>231.4100834183364</v>
       </c>
       <c r="D235">
-        <v>220.77008221137979</v>
+        <v>220.8728020774366</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -3732,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="C236">
-        <v>204.71600298951984</v>
+        <v>204.78910872739652</v>
       </c>
       <c r="D236">
-        <v>188.95236234265488</v>
+        <v>189.04230666470053</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,10 +3746,10 @@
         <v>8</v>
       </c>
       <c r="C237">
-        <v>135.61766062518458</v>
+        <v>135.69265781017029</v>
       </c>
       <c r="D237">
-        <v>136.43917171589746</v>
+        <v>136.53175457380783</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -3760,10 +3760,10 @@
         <v>9</v>
       </c>
       <c r="C238">
-        <v>136.75804551133297</v>
+        <v>136.85440758451378</v>
       </c>
       <c r="D238">
-        <v>139.05470615240779</v>
+        <v>139.17308540863206</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -3774,10 +3774,10 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>126.88331075950727</v>
+        <v>126.95318530363994</v>
       </c>
       <c r="D239">
-        <v>122.33373454828083</v>
+        <v>122.4195136717544</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -3788,10 +3788,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>229.74130240665161</v>
+        <v>229.82843304173929</v>
       </c>
       <c r="D240">
-        <v>215.10320580415839</v>
+        <v>215.21014277618755</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -3802,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="C241">
-        <v>186.01104157058498</v>
+        <v>186.09593433969667</v>
       </c>
       <c r="D241">
-        <v>186.67800680826042</v>
+        <v>186.78246804952775</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -3816,10 +3816,10 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>249.2959533974032</v>
+        <v>249.50098921210218</v>
       </c>
       <c r="D242">
-        <v>255.19628367277909</v>
+        <v>255.44340979306975</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -3830,10 +3830,10 @@
         <v>2</v>
       </c>
       <c r="C243">
-        <v>186.99476712489846</v>
+        <v>187.11300929105633</v>
       </c>
       <c r="D243">
-        <v>189.62509131301908</v>
+        <v>189.76757983419247</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -3844,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C244">
-        <v>238.97382131833007</v>
+        <v>239.20822440036559</v>
       </c>
       <c r="D244">
-        <v>249.98545430686332</v>
+        <v>250.26775200155393</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -3858,10 +3858,10 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>178.12444134832256</v>
+        <v>178.24126991474296</v>
       </c>
       <c r="D245">
-        <v>177.74083009008424</v>
+        <v>177.8815889276257</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -3872,10 +3872,10 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>145.42536200339265</v>
+        <v>145.51624234107905</v>
       </c>
       <c r="D246">
-        <v>142.63172050090651</v>
+        <v>142.73990616501476</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -3886,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="C247">
-        <v>173.58178968872966</v>
+        <v>173.73316598188609</v>
       </c>
       <c r="D247">
-        <v>175.43993005722442</v>
+        <v>175.62285235872952</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -3900,10 +3900,10 @@
         <v>7</v>
       </c>
       <c r="C248">
-        <v>167.46663652998384</v>
+        <v>167.61941735502359</v>
       </c>
       <c r="D248">
-        <v>172.21192530265981</v>
+        <v>172.39612352021453</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -3914,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="C249">
-        <v>141.57391214980666</v>
+        <v>141.68194076160952</v>
       </c>
       <c r="D249">
-        <v>141.71996381798476</v>
+        <v>141.85111637138604</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -3928,10 +3928,10 @@
         <v>9</v>
       </c>
       <c r="C250">
-        <v>159.5644286385255</v>
+        <v>159.70258458350469</v>
       </c>
       <c r="D250">
-        <v>163.38714592023626</v>
+        <v>163.55370928011234</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>145.56461437994781</v>
+        <v>145.65945858297852</v>
       </c>
       <c r="D251">
-        <v>149.77046643631877</v>
+        <v>149.88504133416569</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -3956,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>161.91805990982877</v>
+        <v>162.05915909675764</v>
       </c>
       <c r="D252">
-        <v>167.94549661936418</v>
+        <v>168.11429989012603</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -3970,10 +3970,10 @@
         <v>12</v>
       </c>
       <c r="C253">
-        <v>150.01751273890662</v>
+        <v>150.12890874748493</v>
       </c>
       <c r="D253">
-        <v>155.4967687707495</v>
+        <v>155.63141879389653</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -3984,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>180.30977983730864</v>
+        <v>180.49756090677315</v>
       </c>
       <c r="D254">
-        <v>180.00519148296149</v>
+        <v>180.22495221685762</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -3998,10 +3998,10 @@
         <v>2</v>
       </c>
       <c r="C255">
-        <v>127.92008706584744</v>
+        <v>128.02583051066961</v>
       </c>
       <c r="D255">
-        <v>130.72014220223542</v>
+        <v>130.84397856996634</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4012,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="C256">
-        <v>184.26657836528497</v>
+        <v>184.44735493158848</v>
       </c>
       <c r="D256">
-        <v>181.36925504306959</v>
+        <v>181.58054352215262</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4026,10 +4026,10 @@
         <v>4</v>
       </c>
       <c r="C257">
-        <v>167.39267060362093</v>
+        <v>167.56459446562997</v>
       </c>
       <c r="D257">
-        <v>173.39879568877853</v>
+        <v>173.59974925568656</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4040,10 +4040,10 @@
         <v>5</v>
       </c>
       <c r="C258">
-        <v>173.3368407433972</v>
+        <v>173.49200710367569</v>
       </c>
       <c r="D258">
-        <v>172.45461362784485</v>
+        <v>172.63405253631853</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4054,10 +4054,10 @@
         <v>6</v>
       </c>
       <c r="C259">
-        <v>166.28679660480981</v>
+        <v>166.43037586609913</v>
       </c>
       <c r="D259">
-        <v>163.43332436302379</v>
+        <v>163.60145987712619</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4068,10 +4068,10 @@
         <v>7</v>
       </c>
       <c r="C260">
-        <v>231.89554231172178</v>
+        <v>232.17606325862363</v>
       </c>
       <c r="D260">
-        <v>238.3234316768426</v>
+        <v>238.65164476922112</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -4082,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="C261">
-        <v>174.5781947655619</v>
+        <v>174.76313853587942</v>
       </c>
       <c r="D261">
-        <v>182.03489129761758</v>
+        <v>182.2535259626346</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -4096,10 +4096,10 @@
         <v>9</v>
       </c>
       <c r="C262">
-        <v>195.97576367268582</v>
+        <v>196.1981942017332</v>
       </c>
       <c r="D262">
-        <v>205.61149646691442</v>
+        <v>205.87183344860733</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4110,10 +4110,10 @@
         <v>10</v>
       </c>
       <c r="C263">
-        <v>216.59160710451278</v>
+        <v>216.83383573659401</v>
       </c>
       <c r="D263">
-        <v>225.70227211250591</v>
+        <v>225.98612616565282</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4124,10 +4124,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>251.25319959378561</v>
+        <v>251.57445689408709</v>
       </c>
       <c r="D264">
-        <v>265.02775825077254</v>
+        <v>265.39974461865899</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -4138,10 +4138,10 @@
         <v>12</v>
       </c>
       <c r="C265">
-        <v>222.60235056037774</v>
+        <v>222.77130592685467</v>
       </c>
       <c r="D265">
-        <v>218.16733910278245</v>
+        <v>218.36766791551844</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -4152,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>246.43478718448611</v>
+        <v>246.64011573697908</v>
       </c>
       <c r="D266">
-        <v>243.4922237493017</v>
+        <v>243.73602609554868</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -4166,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="C267">
-        <v>175.32439904564276</v>
+        <v>175.49906094085941</v>
       </c>
       <c r="D267">
-        <v>177.67921524940741</v>
+        <v>177.88511712602781</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4180,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="C268">
-        <v>243.84465964179628</v>
+        <v>244.14351088498958</v>
       </c>
       <c r="D268">
-        <v>251.53686175034574</v>
+        <v>251.88932480392583</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4194,10 +4194,10 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>193.69045853968919</v>
+        <v>193.9212715445012</v>
       </c>
       <c r="D269">
-        <v>204.6724255314802</v>
+        <v>204.94518942899506</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4208,10 +4208,10 @@
         <v>5</v>
       </c>
       <c r="C270">
-        <v>226.52774441963692</v>
+        <v>226.80621356722204</v>
       </c>
       <c r="D270">
-        <v>237.9736012968323</v>
+        <v>238.29675981398947</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -4222,10 +4222,10 @@
         <v>6</v>
       </c>
       <c r="C271">
-        <v>326.61292355359222</v>
+        <v>327.08487501677695</v>
       </c>
       <c r="D271">
-        <v>349.52917360653987</v>
+        <v>350.08572786200818</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4236,10 +4236,10 @@
         <v>7</v>
       </c>
       <c r="C272">
-        <v>252.40196751010851</v>
+        <v>252.6694048548456</v>
       </c>
       <c r="D272">
-        <v>259.57184505987209</v>
+        <v>259.88958793996136</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -4250,10 +4250,10 @@
         <v>8</v>
       </c>
       <c r="C273">
-        <v>294.15605795608002</v>
+        <v>294.42781839991682</v>
       </c>
       <c r="D273">
-        <v>292.90534455807915</v>
+        <v>293.23231962202868</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -4264,10 +4264,10 @@
         <v>9</v>
       </c>
       <c r="C274">
-        <v>240.00643958342749</v>
+        <v>240.25805129378409</v>
       </c>
       <c r="D274">
-        <v>250.23400427452265</v>
+        <v>250.53111131985179</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -4278,10 +4278,10 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>203.78033974155011</v>
+        <v>203.94452731724482</v>
       </c>
       <c r="D275">
-        <v>208.77709439670562</v>
+        <v>208.97313239509185</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -4292,10 +4292,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>246.4874731948353</v>
+        <v>246.78636048816756</v>
       </c>
       <c r="D276">
-        <v>259.05025440337118</v>
+        <v>259.39836565970273</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -4306,10 +4306,10 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>234.46541606919607</v>
+        <v>234.69608919164071</v>
       </c>
       <c r="D277">
-        <v>244.35947687962246</v>
+        <v>244.63754264207941</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -4320,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="C278">
-        <v>194.18379493635794</v>
+        <v>194.37154128300023</v>
       </c>
       <c r="D278">
-        <v>199.22075700373537</v>
+        <v>199.4429235293324</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -4334,10 +4334,10 @@
         <v>2</v>
       </c>
       <c r="C279">
-        <v>198.50843425681327</v>
+        <v>198.66433452273387</v>
       </c>
       <c r="D279">
-        <v>197.92730041809753</v>
+        <v>198.10792708788884</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -4348,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="C280">
-        <v>320.10868403774384</v>
+        <v>320.27609093126176</v>
       </c>
       <c r="D280">
-        <v>311.39109731403335</v>
+        <v>311.58798465302891</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -4362,10 +4362,10 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>331.31726483348012</v>
+        <v>331.58684077264269</v>
       </c>
       <c r="D281">
-        <v>334.69995502155462</v>
+        <v>335.00924143313</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,10 +4376,10 @@
         <v>5</v>
       </c>
       <c r="C282">
-        <v>420.3553816962708</v>
+        <v>420.75933688111928</v>
       </c>
       <c r="D282">
-        <v>423.67369377268426</v>
+        <v>424.1398946815541</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -4390,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="C283">
-        <v>313.96849661936653</v>
+        <v>314.30824129952765</v>
       </c>
       <c r="D283">
-        <v>324.78342727210384</v>
+        <v>325.17552294739903</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -4404,10 +4404,10 @@
         <v>7</v>
       </c>
       <c r="C284">
-        <v>316.75725564878667</v>
+        <v>316.96875226799716</v>
       </c>
       <c r="D284">
-        <v>308.46496862543944</v>
+        <v>308.72877092968707</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -4418,10 +4418,10 @@
         <v>8</v>
       </c>
       <c r="C285">
-        <v>293.93366724432303</v>
+        <v>294.26184899464937</v>
       </c>
       <c r="D285">
-        <v>304.08000489707496</v>
+        <v>304.47281728507443</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -4432,10 +4432,10 @@
         <v>9</v>
       </c>
       <c r="C286">
-        <v>314.44596883073319</v>
+        <v>314.83304210066126</v>
       </c>
       <c r="D286">
-        <v>327.57821578122912</v>
+        <v>328.02906502254848</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -4446,10 +4446,10 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>309.81828384412768</v>
+        <v>310.11499464285913</v>
       </c>
       <c r="D287">
-        <v>312.88088824743932</v>
+        <v>313.23237432175353</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -4460,10 +4460,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>404.41091941623614</v>
+        <v>404.9264472593369</v>
       </c>
       <c r="D288">
-        <v>421.09311240128591</v>
+        <v>421.69506948369155</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -4474,10 +4474,10 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>307.06113430535322</v>
+        <v>307.37685226388311</v>
       </c>
       <c r="D289">
-        <v>314.75403320101924</v>
+        <v>315.13339968767843</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -4488,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="C290">
-        <v>276.18963353556904</v>
+        <v>276.49209227509903</v>
       </c>
       <c r="D290">
-        <v>282.99484026295875</v>
+        <v>283.33855685729594</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -4502,10 +4502,10 @@
         <v>2</v>
       </c>
       <c r="C291">
-        <v>197.23994509061365</v>
+        <v>197.44526630476045</v>
       </c>
       <c r="D291">
-        <v>199.95492475786685</v>
+        <v>200.18353647478429</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -4516,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="C292">
-        <v>215.64655523370078</v>
+        <v>215.89450772833337</v>
       </c>
       <c r="D292">
-        <v>221.27869514112879</v>
+        <v>221.55855938706353</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -4530,10 +4530,10 @@
         <v>4</v>
       </c>
       <c r="C293">
-        <v>198.02092626946737</v>
+        <v>198.27202273157499</v>
       </c>
       <c r="D293">
-        <v>206.24163992355565</v>
+        <v>206.5210490364654</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -4544,10 +4544,10 @@
         <v>5</v>
       </c>
       <c r="C294">
-        <v>176.02518903638295</v>
+        <v>176.21104883627956</v>
       </c>
       <c r="D294">
-        <v>179.7119279732554</v>
+        <v>179.91934476249779</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -4558,10 +4558,10 @@
         <v>6</v>
       </c>
       <c r="C295">
-        <v>173.49766884102436</v>
+        <v>173.69304060740077</v>
       </c>
       <c r="D295">
-        <v>181.04478768357708</v>
+        <v>181.26083134381162</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -4572,10 +4572,10 @@
         <v>7</v>
       </c>
       <c r="C296">
-        <v>191.99227827300737</v>
+        <v>192.13386827771862</v>
       </c>
       <c r="D296">
-        <v>190.5053794330932</v>
+        <v>190.67860729711984</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -4586,10 +4586,10 @@
         <v>8</v>
       </c>
       <c r="C297">
-        <v>205.2184450748816</v>
+        <v>205.43846689341805</v>
       </c>
       <c r="D297">
-        <v>209.98734386235813</v>
+        <v>210.24213235255337</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -4600,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="C298">
-        <v>215.43234859791221</v>
+        <v>215.6680423509039</v>
       </c>
       <c r="D298">
-        <v>219.79238261396887</v>
+        <v>220.05540145662499</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -4614,10 +4614,10 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>190.75021996651583</v>
+        <v>190.93401110917887</v>
       </c>
       <c r="D299">
-        <v>195.36813785050145</v>
+        <v>195.58150158606068</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -4628,10 +4628,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>233.20314645686531</v>
+        <v>233.47000707339234</v>
       </c>
       <c r="D300">
-        <v>234.63840494924867</v>
+        <v>234.94051276875302</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -4642,10 +4642,10 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>263.63062762796665</v>
+        <v>263.88391829654631</v>
       </c>
       <c r="D301">
-        <v>267.52562981454651</v>
+        <v>267.82005831418473</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="C302">
-        <v>226.21462060191692</v>
+        <v>226.46349079040027</v>
       </c>
       <c r="D302">
-        <v>233.58828975706282</v>
+        <v>233.87647551488422</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -4670,10 +4670,10 @@
         <v>2</v>
       </c>
       <c r="C303">
-        <v>178.42150547683312</v>
+        <v>178.57179066859234</v>
       </c>
       <c r="D303">
-        <v>186.35333744862592</v>
+        <v>186.52405088817997</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -4684,10 +4684,10 @@
         <v>3</v>
       </c>
       <c r="C304">
-        <v>302.15789559076717</v>
+        <v>302.46264662535572</v>
       </c>
       <c r="D304">
-        <v>305.62294556859126</v>
+        <v>305.9717362436615</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -4698,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="C305">
-        <v>273.19178549319025</v>
+        <v>273.48927390197798</v>
       </c>
       <c r="D305">
-        <v>288.06324356303838</v>
+        <v>288.40200154624608</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -4712,10 +4712,10 @@
         <v>5</v>
       </c>
       <c r="C306">
-        <v>280.84892509959167</v>
+        <v>281.17729913852997</v>
       </c>
       <c r="D306">
-        <v>290.51082759472274</v>
+        <v>290.88664476173</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -4726,10 +4726,10 @@
         <v>6</v>
       </c>
       <c r="C307">
-        <v>252.54232378131491</v>
+        <v>252.85597508765349</v>
       </c>
       <c r="D307">
-        <v>265.34763628112921</v>
+        <v>265.70125678193966</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="C308">
-        <v>298.18806661837453</v>
+        <v>298.35742248319025</v>
       </c>
       <c r="D308">
-        <v>305.64370223092124</v>
+        <v>305.85829635060998</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -4754,10 +4754,10 @@
         <v>8</v>
       </c>
       <c r="C309">
-        <v>239.38445940377659</v>
+        <v>239.55966552162121</v>
       </c>
       <c r="D309">
-        <v>241.82117853641995</v>
+        <v>242.02875344809985</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -4768,10 +4768,10 @@
         <v>9</v>
       </c>
       <c r="C310">
-        <v>252.37677379358476</v>
+        <v>252.57987505456842</v>
       </c>
       <c r="D310">
-        <v>254.057989830292</v>
+        <v>254.29086743869857</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -4782,10 +4782,10 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>268.92996628441762</v>
+        <v>269.12394206266021</v>
       </c>
       <c r="D311">
-        <v>269.22741355326571</v>
+        <v>269.4533717435408</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -4796,10 +4796,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>316.64387605750051</v>
+        <v>316.99480211911663</v>
       </c>
       <c r="D312">
-        <v>327.06046020284248</v>
+        <v>327.46665264377407</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -4810,10 +4810,10 @@
         <v>12</v>
       </c>
       <c r="C313">
-        <v>244.12802092822031</v>
+        <v>244.34621840953636</v>
       </c>
       <c r="D313">
-        <v>255.86243952074693</v>
+        <v>256.11908562985104</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -4824,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>220.64598777654382</v>
+        <v>220.84839238052015</v>
       </c>
       <c r="D314">
-        <v>229.18355034661272</v>
+        <v>229.43440471366713</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -4838,10 +4838,10 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>245.78709545437468</v>
+        <v>246.09674086664276</v>
       </c>
       <c r="D315">
-        <v>263.23427864218991</v>
+        <v>263.60880542822929</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -4852,10 +4852,10 @@
         <v>3</v>
       </c>
       <c r="C316">
-        <v>319.79872576033222</v>
+        <v>320.22405241972325</v>
       </c>
       <c r="D316">
-        <v>339.53070747773438</v>
+        <v>340.04784190915279</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -4866,10 +4866,10 @@
         <v>4</v>
       </c>
       <c r="C317">
-        <v>259.59439919558372</v>
+        <v>259.94859136831752</v>
       </c>
       <c r="D317">
-        <v>284.16991747757697</v>
+        <v>284.59442386397296</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -4880,10 +4880,10 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>214.61410547269878</v>
+        <v>214.8393657983386</v>
       </c>
       <c r="D318">
-        <v>213.87946820842092</v>
+        <v>214.14707095577276</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -4894,10 +4894,10 @@
         <v>6</v>
       </c>
       <c r="C319">
-        <v>225.34519570403555</v>
+        <v>225.62071505954549</v>
       </c>
       <c r="D319">
-        <v>238.22371007714457</v>
+        <v>238.55160768793274</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -4908,10 +4908,10 @@
         <v>7</v>
       </c>
       <c r="C320">
-        <v>195.22278886373303</v>
+        <v>195.24339352339445</v>
       </c>
       <c r="D320">
-        <v>203.25808652726982</v>
+        <v>203.31654815469048</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -4922,10 +4922,10 @@
         <v>8</v>
       </c>
       <c r="C321">
-        <v>178.25282449419518</v>
+        <v>178.38663395485301</v>
       </c>
       <c r="D321">
-        <v>188.33319529714601</v>
+        <v>188.50624605627434</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -4936,10 +4936,10 @@
         <v>9</v>
       </c>
       <c r="C322">
-        <v>204.22276828471064</v>
+        <v>204.42216940563523</v>
       </c>
       <c r="D322">
-        <v>213.12258720413729</v>
+        <v>213.36622074155409</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -4950,10 +4950,10 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>193.0310287624587</v>
+        <v>193.1447948404134</v>
       </c>
       <c r="D323">
-        <v>199.37622654225177</v>
+        <v>199.51820590882087</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -4964,10 +4964,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>211.096236111179</v>
+        <v>211.26101842626412</v>
       </c>
       <c r="D324">
-        <v>221.06174622706698</v>
+        <v>221.26675776922443</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -4978,10 +4978,10 @@
         <v>12</v>
       </c>
       <c r="C325">
-        <v>227.15847512266788</v>
+        <v>227.36589660554753</v>
       </c>
       <c r="D325">
-        <v>249.81449241569456</v>
+        <v>250.07648640544423</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>244.28504311209599</v>
+        <v>244.55095682869657</v>
       </c>
       <c r="D326">
-        <v>262.92649789456675</v>
+        <v>263.2592532215682</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -5006,10 +5006,10 @@
         <v>2</v>
       </c>
       <c r="C327">
-        <v>170.26831229611042</v>
+        <v>170.43061974764072</v>
       </c>
       <c r="D327">
-        <v>181.83225229022918</v>
+        <v>182.027901346455</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -5020,10 +5020,10 @@
         <v>3</v>
       </c>
       <c r="C328">
-        <v>182.20771262389815</v>
+        <v>182.43501044471174</v>
       </c>
       <c r="D328">
-        <v>189.66791217607357</v>
+        <v>189.94249884322647</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -5034,10 +5034,10 @@
         <v>4</v>
       </c>
       <c r="C329">
-        <v>173.81182307301947</v>
+        <v>173.97931964954657</v>
       </c>
       <c r="D329">
-        <v>178.01397432989683</v>
+        <v>178.21427269453093</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -5048,10 +5048,10 @@
         <v>5</v>
       </c>
       <c r="C330">
-        <v>187.21142528939652</v>
+        <v>187.42148492245977</v>
       </c>
       <c r="D330">
-        <v>191.21278199696715</v>
+        <v>191.46361318857402</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="C331">
-        <v>175.4020087741585</v>
+        <v>175.58038550663653</v>
       </c>
       <c r="D331">
-        <v>175.45163846668507</v>
+        <v>175.65653460543678</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -5076,10 +5076,10 @@
         <v>7</v>
       </c>
       <c r="C332">
-        <v>233.336918937219</v>
+        <v>233.33905580256703</v>
       </c>
       <c r="D332">
-        <v>244.87551776083961</v>
+        <v>244.92200876868242</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -5090,10 +5090,10 @@
         <v>8</v>
       </c>
       <c r="C333">
-        <v>194.31027972457139</v>
+        <v>194.41585035622481</v>
       </c>
       <c r="D333">
-        <v>201.88056771146958</v>
+        <v>202.02318396520909</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -5104,10 +5104,10 @@
         <v>9</v>
       </c>
       <c r="C334">
-        <v>205.49835088493856</v>
+        <v>205.69927076178882</v>
       </c>
       <c r="D334">
-        <v>211.31661775919125</v>
+        <v>211.56090240728184</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -5118,10 +5118,10 @@
         <v>10</v>
       </c>
       <c r="C335">
-        <v>208.49134351607546</v>
+        <v>208.6590537050528</v>
       </c>
       <c r="D335">
-        <v>215.15242050474765</v>
+        <v>215.36296981016372</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -5132,10 +5132,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>286.05168438302746</v>
+        <v>286.21710255047378</v>
       </c>
       <c r="D336">
-        <v>281.82344502649738</v>
+        <v>282.03244615903589</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -5146,10 +5146,10 @@
         <v>12</v>
       </c>
       <c r="C337">
-        <v>331.62173519590999</v>
+        <v>331.86310407743969</v>
       </c>
       <c r="D337">
-        <v>336.39871256944912</v>
+        <v>336.70695323855256</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -5160,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>312.77025392852869</v>
+        <v>312.96405214118738</v>
       </c>
       <c r="D338">
-        <v>309.51598927977642</v>
+        <v>309.75896789015667</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -5174,10 +5174,10 @@
         <v>2</v>
       </c>
       <c r="C339">
-        <v>330.47992571276336</v>
+        <v>330.74378303520791</v>
       </c>
       <c r="D339">
-        <v>319.57796466561945</v>
+        <v>319.89272037373422</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -5188,10 +5188,10 @@
         <v>3</v>
       </c>
       <c r="C340">
-        <v>475.42039377794578</v>
+        <v>473.27463254424237</v>
       </c>
       <c r="D340">
-        <v>461.1006366872366</v>
+        <v>458.71467898098427</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -5202,10 +5202,10 @@
         <v>4</v>
       </c>
       <c r="C341">
-        <v>629.94281664425466</v>
+        <v>628.47955958341902</v>
       </c>
       <c r="D341">
-        <v>586.66347135145941</v>
+        <v>585.04949810640562</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,10 +5216,10 @@
         <v>5</v>
       </c>
       <c r="C342">
-        <v>520.00596566358877</v>
+        <v>519.93054660705673</v>
       </c>
       <c r="D342">
-        <v>487.90875401023436</v>
+        <v>487.68183540520135</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -5230,14 +5230,28 @@
         <v>6</v>
       </c>
       <c r="C343">
-        <v>370.97622040815844</v>
+        <v>370.65244439961668</v>
       </c>
       <c r="D343">
-        <v>359.00083851320903</v>
+        <v>357.59524150893725</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="A344">
+        <v>2025</v>
+      </c>
+      <c r="B344">
+        <v>7</v>
+      </c>
+      <c r="C344">
+        <v>394.04512080865612</v>
+      </c>
+      <c r="D344">
+        <v>377.14680268855807</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>4</v>
       </c>
     </row>
